--- a/grades2.xlsx
+++ b/grades2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrissfiris/Desktop/saas25-27-lia-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\liaskentzou\saas25-27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5CC7B4-1171-0E48-8547-0A08DC7A4BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFE92D3-A305-422D-AC9C-4D3921D9018C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{721E483D-F02F-DA43-A7B8-6BF48DA94536}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{721E483D-F02F-DA43-A7B8-6BF48DA94536}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1423,24 +1423,24 @@
   <dimension ref="A1:R105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E4" sqref="E4:E105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="18" width="4.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="20.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="2"/>
+    <col min="9" max="18" width="4.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>318</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="3">
         <v>5</v>
       </c>
@@ -1504,7 +1504,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1551,7 +1551,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1692,7 +1692,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1786,7 +1786,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1833,7 +1833,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1880,7 +1880,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -1927,7 +1927,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -2021,7 +2021,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -2068,7 +2068,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -2115,7 +2115,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -2162,7 +2162,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
@@ -2256,7 +2256,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -2303,7 +2303,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>69</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
@@ -2444,7 +2444,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
@@ -2491,7 +2491,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>81</v>
       </c>
@@ -2538,7 +2538,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>84</v>
       </c>
@@ -2585,7 +2585,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>87</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
@@ -2679,7 +2679,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>93</v>
       </c>
@@ -2726,7 +2726,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>96</v>
       </c>
@@ -2773,7 +2773,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>99</v>
       </c>
@@ -2820,7 +2820,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>102</v>
       </c>
@@ -2867,7 +2867,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>105</v>
       </c>
@@ -2914,7 +2914,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>108</v>
       </c>
@@ -2961,7 +2961,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>111</v>
       </c>
@@ -3008,7 +3008,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>114</v>
       </c>
@@ -3055,7 +3055,7 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>117</v>
       </c>
@@ -3102,7 +3102,7 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>120</v>
       </c>
@@ -3149,7 +3149,7 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>123</v>
       </c>
@@ -3196,7 +3196,7 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>126</v>
       </c>
@@ -3243,7 +3243,7 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>129</v>
       </c>
@@ -3290,7 +3290,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>132</v>
       </c>
@@ -3337,7 +3337,7 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>135</v>
       </c>
@@ -3384,7 +3384,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>138</v>
       </c>
@@ -3431,7 +3431,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>141</v>
       </c>
@@ -3478,7 +3478,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>144</v>
       </c>
@@ -3525,7 +3525,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>147</v>
       </c>
@@ -3572,7 +3572,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>150</v>
       </c>
@@ -3619,7 +3619,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>153</v>
       </c>
@@ -3666,7 +3666,7 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>156</v>
       </c>
@@ -3713,7 +3713,7 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>158</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>161</v>
       </c>
@@ -3807,7 +3807,7 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>164</v>
       </c>
@@ -3854,7 +3854,7 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>167</v>
       </c>
@@ -3901,7 +3901,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>170</v>
       </c>
@@ -3948,7 +3948,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>172</v>
       </c>
@@ -3995,7 +3995,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>175</v>
       </c>
@@ -4042,7 +4042,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>178</v>
       </c>
@@ -4089,7 +4089,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>181</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>184</v>
       </c>
@@ -4183,7 +4183,7 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>187</v>
       </c>
@@ -4230,7 +4230,7 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>190</v>
       </c>
@@ -4277,7 +4277,7 @@
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>193</v>
       </c>
@@ -4324,7 +4324,7 @@
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>196</v>
       </c>
@@ -4371,7 +4371,7 @@
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>198</v>
       </c>
@@ -4418,7 +4418,7 @@
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>201</v>
       </c>
@@ -4465,7 +4465,7 @@
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>204</v>
       </c>
@@ -4512,7 +4512,7 @@
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>207</v>
       </c>
@@ -4559,7 +4559,7 @@
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>210</v>
       </c>
@@ -4606,7 +4606,7 @@
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>213</v>
       </c>
@@ -4653,7 +4653,7 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>216</v>
       </c>
@@ -4700,7 +4700,7 @@
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>219</v>
       </c>
@@ -4747,7 +4747,7 @@
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>222</v>
       </c>
@@ -4794,7 +4794,7 @@
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>225</v>
       </c>
@@ -4841,7 +4841,7 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -4888,7 +4888,7 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>230</v>
       </c>
@@ -4935,7 +4935,7 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>233</v>
       </c>
@@ -4982,7 +4982,7 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>235</v>
       </c>
@@ -5029,7 +5029,7 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>238</v>
       </c>
@@ -5076,7 +5076,7 @@
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>240</v>
       </c>
@@ -5123,7 +5123,7 @@
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>243</v>
       </c>
@@ -5170,7 +5170,7 @@
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -5217,7 +5217,7 @@
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -5264,7 +5264,7 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>250</v>
       </c>
@@ -5311,7 +5311,7 @@
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>253</v>
       </c>
@@ -5358,7 +5358,7 @@
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>256</v>
       </c>
@@ -5405,7 +5405,7 @@
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>259</v>
       </c>
@@ -5452,7 +5452,7 @@
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>262</v>
       </c>
@@ -5499,7 +5499,7 @@
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>265</v>
       </c>
@@ -5546,7 +5546,7 @@
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>268</v>
       </c>
@@ -5593,7 +5593,7 @@
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>271</v>
       </c>
@@ -5640,7 +5640,7 @@
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>274</v>
       </c>
@@ -5687,7 +5687,7 @@
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>277</v>
       </c>
@@ -5734,7 +5734,7 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>280</v>
       </c>
@@ -5781,7 +5781,7 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>282</v>
       </c>
@@ -5828,7 +5828,7 @@
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>285</v>
       </c>
@@ -5875,7 +5875,7 @@
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>288</v>
       </c>
@@ -5922,7 +5922,7 @@
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>291</v>
       </c>
@@ -5969,7 +5969,7 @@
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>293</v>
       </c>
@@ -6016,7 +6016,7 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>296</v>
       </c>
@@ -6063,7 +6063,7 @@
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>299</v>
       </c>
@@ -6110,7 +6110,7 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>302</v>
       </c>
@@ -6157,7 +6157,7 @@
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>305</v>
       </c>
@@ -6204,7 +6204,7 @@
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>308</v>
       </c>
@@ -6251,7 +6251,7 @@
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>310</v>
       </c>
@@ -6298,7 +6298,7 @@
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>313</v>
       </c>
